--- a/result_pysr/equations_manual_normalized_n.xlsx
+++ b/result_pysr/equations_manual_normalized_n.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>density*(Kappa_AB + 0.21826322)*(-temperature - (sqrt(density**3*sqrt(temperature**3 + sqrt(nu**(3/2)))) - sqrt(sin(sqrt(nu**3/(Sigma*temperature)))**3))**2 + 1.3803902)/(density**1.005 + 1.0e-16)</t>
+          <t>density*(epsilon_AB + 0.1981723)*(-temperature + sin(density*(-epsilon_AB + sqrt(temperature) + temperature)) + 0.49287003)/(Sigma*(density**1.005 + 1.0e-16))</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>density*(Epsilon*(1.1317126 - temperature)*((Epsilon - tan(density/(sqrt(Sigma) + 0.12221279/(Epsilon**3*temperature**3))))**2 + 0.56021106)/Sigma**2 + 0.026175383)/(density**1.005 + 1.0e-16)</t>
+          <t>-0.7119644*Epsilon**2*density*(temperature - cos(sqrt(Epsilon) - sqrt(temperature)*(density + 0.061288446))**3)**2/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>density*(nu**(1/4) - nu)*((density*(0.93574125*density + 0.93574125*temperature) - nu)**2 + ((-Sigma + temperature)**2 - 0.33889252)/Sigma)/(density**1.005 + 1.0e-16)</t>
+          <t>-0.143010536279789*density*(Epsilon + density**2)*(-temperature + sin(density/(-0.45771354))**2)**2*exp(epsilon_AB)/(Sigma*(density**1.005 + 1.0e-16))</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>density*(-Kappa_AB - 0.17442663)*(temperature - sin(0.790870257022552*exp(density))**3 - 0.38951403)*cosh(Kappa_AB - density*sqrt(temperature))/(density**1.005 + 1.0e-16)</t>
+          <t>density*(Kappa_AB + 0.21826322)*(-temperature - (sqrt(density**3*sqrt(temperature**3 + sqrt(nu**(3/2)))) - sqrt(sin(sqrt(nu**3/(Sigma*temperature)))**3))**2 + 1.3803902)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>density*(Epsilon*(1.1317126 - temperature)*((Epsilon - tan(density/(sqrt(Sigma) + 0.12221279/(Epsilon**3*temperature**3))))**2 + 0.56021106)/Sigma**2 + 0.026175383)/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>density*sinh((0.42385203 - (temperature - sin(Sigma*temperature*(density + 0.22577873))))*(epsilon_AB - 1*(-0.24911886)))/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>density*(nu**(1/4) - nu)*((density*(0.93574125*density + 0.93574125*temperature) - nu)**2 + ((-Sigma + temperature)**2 - 0.33889252)/Sigma)/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>density*(-Kappa_AB - 0.17442663)*(temperature - sin(0.790870257022552*exp(density))**3 - 0.38951403)*cosh(Kappa_AB - density*sqrt(temperature))/(density**1.005 + 1.0e-16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>density*(Kappa_AB*temperature + 0.23386323)*(-temperature - 1.10878751890404*(-0.949676815482923*Sigma*density*temperature + 1)**2 + 1.4030247)/(nu*(density**1.005 + 1.0e-16))</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epsilon*density*(density*nu/temperature - cosh(-density + epsilon_AB + 0.3895325)**2 - density**3/Sigma**3)*log(temperature)**2/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>

--- a/result_pysr/equations_manual_normalized_n.xlsx
+++ b/result_pysr/equations_manual_normalized_n.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,70 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>density*(epsilon_AB + 0.1981723)*(-temperature + sin(density*(-epsilon_AB + sqrt(temperature) + temperature)) + 0.49287003)/(Sigma*(density**1.005 + 1.0e-16))</t>
+          <t>density*(-Sigma*temperature*(Epsilon - density)**4 + (1.3324432 - temperature)*(Kappa_AB + 0.24824417))/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-0.7119644*Epsilon**2*density*(temperature - cos(sqrt(Epsilon) - sqrt(temperature)*(density + 0.061288446))**3)**2/(density**1.005 + 1.0e-16)</t>
+          <t>density*sinh((Kappa_AB + 0.278554)*(-0.763603073319105*temperature + cos(Epsilon - temperature*(density**(3/2) - 0.07174794))))/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-0.143010536279789*density*(Epsilon + density**2)*(-temperature + sin(density/(-0.45771354))**2)**2*exp(epsilon_AB)/(Sigma*(density**1.005 + 1.0e-16))</t>
+          <t>density*((temperature - sin(density*2.3050656))**2*(-Kappa_AB + (density**2 - 1*(-0.3507352))*(-0.25296378))*0.55874705 - 0.031699482)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>density*(Kappa_AB + 0.21826322)*(-temperature - (sqrt(density**3*sqrt(temperature**3 + sqrt(nu**(3/2)))) - sqrt(sin(sqrt(nu**3/(Sigma*temperature)))**3))**2 + 1.3803902)/(density**1.005 + 1.0e-16)</t>
+          <t>density*(1.0185701 - nu)*(-temperature + cos(Epsilon - sqrt(density**3*temperature)/Sigma)**2)**2/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>density*(Epsilon*(1.1317126 - temperature)*((Epsilon - tan(density/(sqrt(Sigma) + 0.12221279/(Epsilon**3*temperature**3))))**2 + 0.56021106)/Sigma**2 + 0.026175383)/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>density*sinh((0.42385203 - (temperature - sin(Sigma*temperature*(density + 0.22577873))))*(epsilon_AB - 1*(-0.24911886)))/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>density*(nu**(1/4) - nu)*((density*(0.93574125*density + 0.93574125*temperature) - nu)**2 + ((-Sigma + temperature)**2 - 0.33889252)/Sigma)/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>density*(-Kappa_AB - 0.17442663)*(temperature - sin(0.790870257022552*exp(density))**3 - 0.38951403)*cosh(Kappa_AB - density*sqrt(temperature))/(density**1.005 + 1.0e-16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>density*(Kappa_AB*temperature + 0.23386323)*(-temperature - 1.10878751890404*(-0.949676815482923*Sigma*density*temperature + 1)**2 + 1.4030247)/(nu*(density**1.005 + 1.0e-16))</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Epsilon*density*(density*nu/temperature - cosh(-density + epsilon_AB + 0.3895325)**2 - density**3/Sigma**3)*log(temperature)**2/(density**1.005 + 1.0e-16)</t>
+          <t>density*sinh(0.05526295 + (0.92620045 - nu)*(temperature - sinh(sin((density*(temperature + 1.3802248) + 0.41213688)/nu)))/Sigma)/(density**1.005 + 1.0e-16)</t>
         </is>
       </c>
     </row>
